--- a/generated-files/TroopTemplate.xlsx
+++ b/generated-files/TroopTemplate.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86B596D-9A44-40A0-ACA0-2C673CCAF6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="42165" yWindow="-17010" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TroopTemplate" r:id="rId3" sheetId="1"/>
+    <sheet name="TroopTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -17,9 +25,6 @@
     <t>兵种模板ID</t>
   </si>
   <si>
-    <t>troopTemplateId</t>
-  </si>
-  <si>
     <t>兵种名称</t>
   </si>
   <si>
@@ -66,19 +71,29 @@
   </si>
   <si>
     <t>maxTier</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -87,7 +102,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -100,81 +115,396 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/generated-files/TroopTemplate.xlsx
+++ b/generated-files/TroopTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86B596D-9A44-40A0-ACA0-2C673CCAF6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870DB40-5976-4F1E-91F4-A9DE7E873725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42165" yWindow="-17010" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TroopTemplate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>兵种模板ID</t>
   </si>
@@ -31,12 +31,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>兵种描述</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>兵种类型</t>
   </si>
   <si>
@@ -75,13 +69,105 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级方士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级方士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级方士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级方士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级方士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFANTRY</t>
+  </si>
+  <si>
+    <t>CAVALRY</t>
+  </si>
+  <si>
+    <t>ARCHER</t>
+  </si>
+  <si>
+    <t>MAGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -95,6 +181,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,8 +212,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L9" activeCellId="1" sqref="C9 L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,13 +566,10 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -499,8 +592,525 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>400</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>400</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>400</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>400</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>400</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
